--- a/shablon.xlsx
+++ b/shablon.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\marshrut_parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D32CF3-5BB9-49CB-8DDB-0DF1C20E3EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Пример" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="409">
   <si>
     <t>откуда</t>
   </si>
@@ -25,13 +33,256 @@
     <t>Время прибытия и расстояние</t>
   </si>
   <si>
+    <t>35,521291 56,033294</t>
+  </si>
+  <si>
+    <t>35,4008 56,186594</t>
+  </si>
+  <si>
+    <t>г.о.Шаховская, ул. 1-я Советская, д 54</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Дмитровка</t>
+  </si>
+  <si>
+    <t>35,510394 56,031166</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, рабочий посёлок Шаховская</t>
+  </si>
+  <si>
+    <t>35,584137 56,028671</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Стариково</t>
+  </si>
+  <si>
+    <t>35,647181 56,003175</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Степаньково</t>
+  </si>
+  <si>
+    <t>35,377156 56,14225</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Тарасово</t>
+  </si>
+  <si>
+    <t>35,423886 55,921894</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Филенино</t>
+  </si>
+  <si>
+    <t>35,480058 56,185617</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Фроловское</t>
+  </si>
+  <si>
+    <t>35,533472 56,147139</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Харитоново</t>
+  </si>
+  <si>
+    <t>35,5069 55,848604</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Холмец</t>
+  </si>
+  <si>
+    <t>35,68447 56,015092</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Чухолово</t>
+  </si>
+  <si>
+    <t>35,597683 55,909171</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Шляково</t>
+  </si>
+  <si>
+    <t>35,428836 55,962745</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Щемелинки</t>
+  </si>
+  <si>
+    <t>35,592024 56,142847</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Юренево</t>
+  </si>
+  <si>
+    <t>35,541368 56,006839</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Юрьево</t>
+  </si>
+  <si>
+    <t>35,578433 55,931013</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Якшино</t>
+  </si>
+  <si>
+    <t>35,407106 56,031926</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, посёлок Муриковский Разъезд</t>
+  </si>
+  <si>
+    <t>35,637084 56,00924</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, посёлок станции Бухолово</t>
+  </si>
+  <si>
+    <t>35,425988 56,07891</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, посёлок Ядровского Лесничества</t>
+  </si>
+  <si>
+    <t>35,355911 56,221775</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, село Ивашково</t>
+  </si>
+  <si>
+    <t>35,336103 56,223346</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Косилово</t>
+  </si>
+  <si>
+    <t>35,297763 55,868758</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, село Косилово</t>
+  </si>
+  <si>
+    <t>35,394943 55,84398</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, село Никольское</t>
+  </si>
+  <si>
+    <t>35,530768 56,047655</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, село Павловское</t>
+  </si>
+  <si>
+    <t>35,258048 55,899684</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Спас-Вилки</t>
+  </si>
+  <si>
+    <t>35,414472 56,022328</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Паново</t>
+  </si>
+  <si>
+    <t>35,405282 56,191799</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Орешки</t>
+  </si>
+  <si>
+    <t>35,586913 55,958245</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Павловское</t>
+  </si>
+  <si>
+    <t>35,400081 55,785007</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Панюково</t>
+  </si>
+  <si>
+    <t>35,431432 55,767884</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Пахомово</t>
+  </si>
+  <si>
+    <t>35,630095 55,827909</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Пески</t>
+  </si>
+  <si>
+    <t>35,376563 56,156325</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Плоское</t>
+  </si>
+  <si>
+    <t>35,472449 55,799892</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Подсухино</t>
+  </si>
+  <si>
+    <t>35,578109 56,141553</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Починки</t>
+  </si>
+  <si>
+    <t>35,387136 55,9802</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Пыщерово</t>
+  </si>
+  <si>
+    <t>35,522908 56,156837</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Пьянкино</t>
+  </si>
+  <si>
+    <t>35,62015 55,835351</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Репотино</t>
+  </si>
+  <si>
+    <t>35,404483 56,00235</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Ржищи</t>
+  </si>
+  <si>
+    <t>35,588036 56,043658</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская, деревня Рождествено</t>
+  </si>
+  <si>
+    <t>35,460062 55,983111</t>
+  </si>
+  <si>
+    <t>Россия, Московская область, городской округ Шаховская</t>
+  </si>
+  <si>
+    <t>Широта Долгота (можно заменить на адрес)</t>
+  </si>
+  <si>
     <t>55,439349 37,74569</t>
   </si>
   <si>
     <t>55,42 38,2679129</t>
   </si>
   <si>
-    <t>53 минПрибытие в 11:15 46 км, Без пробок: 50 мин</t>
+    <t>56 минПрибытие в 10:04 46 км, Без пробок: 50 мин</t>
   </si>
   <si>
     <t>55,364465 39,028898</t>
@@ -40,13 +291,13 @@
     <t>55,384 39,0378169</t>
   </si>
   <si>
-    <t>8 минПрибытие в 10:30 3,1 км, Без пробок: 8 мин</t>
+    <t>8 минПрибытие в 09:15 3,1 км, Без пробок: 8 мин</t>
   </si>
   <si>
     <t>55,601 38,1146435</t>
   </si>
   <si>
-    <t>1 ч 21 минПрибытие в 11:43 53 км, Без пробок: 1 ч 3 мин</t>
+    <t>1 ч 14 минПрибытие в 10:22 55 км, Без пробок: 1 ч 6 мин</t>
   </si>
   <si>
     <t>55,814639 37,347988</t>
@@ -55,40 +306,40 @@
     <t>55,915 36,8589561</t>
   </si>
   <si>
-    <t>45 минПрибытие в 11:07 52 км, Без пробок: 43 мин</t>
+    <t>47 минПрибытие в 09:55 52 км, Без пробок: 43 мин</t>
   </si>
   <si>
     <t>55,817 37,387676</t>
   </si>
   <si>
-    <t>1 ч 35 минПрибытие в 11:57 65 км, Без пробок: 1 ч 1 мин</t>
+    <t>1 ч 40 минПрибытие в 10:48 61 км, Без пробок: 58 мин</t>
   </si>
   <si>
     <t>55,919614 37,827284</t>
   </si>
   <si>
-    <t>56 минПрибытие в 11:18 36 км, Без пробок: 35 мин</t>
+    <t>1 ч 13 минПрибытие в 10:21 36 км, Без пробок: 34 мин</t>
   </si>
   <si>
     <t>55,914 37,8667161</t>
   </si>
   <si>
-    <t>11 минПрибытие в 10:33 3,7 км, Без пробок: 11 мин</t>
+    <t>10 минПрибытие в 09:18 3,6 км, Без пробок: 10 мин</t>
   </si>
   <si>
     <t>55,662 37,8727806</t>
   </si>
   <si>
-    <t>42 минПрибытие в 11:04 34 км, Без пробок: 38 мин</t>
-  </si>
-  <si>
-    <t>1 ч 17 минПрибытие в 11:39 53 км, Без пробок: 58 мин</t>
+    <t>48 минПрибытие в 09:56 39 км, Без пробок: 43 мин</t>
+  </si>
+  <si>
+    <t>1 ч 18 минПрибытие в 10:26 48 км, Без пробок: 51 мин</t>
   </si>
   <si>
     <t>55,826 37,326297</t>
   </si>
   <si>
-    <t>9 минПрибытие в 10:31 3,8 км, Без пробок: 8 мин</t>
+    <t>18 минПрибытие в 09:26 8,2 км, Без пробок: 14 мин</t>
   </si>
   <si>
     <t>55,369495 37,539626</t>
@@ -97,19 +348,19 @@
     <t>55,536 37,723627</t>
   </si>
   <si>
-    <t>44 минПрибытие в 11:07 40 км, Без пробок: 43 мин</t>
+    <t>47 минПрибытие в 09:55 40 км, Без пробок: 43 мин</t>
   </si>
   <si>
     <t>55,676 37,8937095</t>
   </si>
   <si>
-    <t>49 минПрибытие в 11:12 38 км, Без пробок: 41 мин</t>
+    <t>56 минПрибытие в 10:05 39 км, Без пробок: 45 мин</t>
   </si>
   <si>
     <t>55,924 37,7552338</t>
   </si>
   <si>
-    <t>14 минПрибытие в 10:36 6,3 км, Без пробок: 14 мин</t>
+    <t>18 минПрибытие в 09:27 6,2 км, Без пробок: 15 мин</t>
   </si>
   <si>
     <t>55,736721 36,856349</t>
@@ -118,7 +369,7 @@
     <t>55,384 36,7445492</t>
   </si>
   <si>
-    <t>1 ч 8 минПрибытие в 11:31 53 км, Без пробок: 1 ч 3 мин</t>
+    <t>1 ч 5 минПрибытие в 10:14 53 км, Без пробок: 1 ч 3 мин</t>
   </si>
   <si>
     <t>55,883964 38,788823</t>
@@ -127,7 +378,7 @@
     <t>55,772 38,6545984</t>
   </si>
   <si>
-    <t>30 минПрибытие в 10:53 23 км, Без пробок: 29 мин</t>
+    <t>29 минПрибытие в 09:38 22 км, Без пробок: 27 мин</t>
   </si>
   <si>
     <t>54,92004 37,377929</t>
@@ -136,19 +387,19 @@
     <t>54,864 37,2075898</t>
   </si>
   <si>
-    <t>23 минПрибытие в 10:46 16 км, Без пробок: 23 мин</t>
+    <t>23 минПрибытие в 09:31 16 км, Без пробок: 23 мин</t>
   </si>
   <si>
     <t>55,566 38,2333914</t>
   </si>
   <si>
-    <t>1 ч 30 минПрибытие в 11:53 63 км, Без пробок: 1 ч 11 мин</t>
+    <t>1 ч 19 минПрибытие в 10:28 63 км, Без пробок: 1 ч 8 мин</t>
   </si>
   <si>
     <t>55,76 37,8595742</t>
   </si>
   <si>
-    <t>1 ч 20 минПрибытие в 11:43 68 км, Без пробок: 1 ч 8 мин</t>
+    <t>1 ч 16 минПрибытие в 10:25 68 км, Без пробок: 1 ч 8 мин</t>
   </si>
   <si>
     <t>55,503069 36,024644</t>
@@ -157,25 +408,25 @@
     <t>55,704 36,1925009</t>
   </si>
   <si>
-    <t>30 минПрибытие в 10:53 29 км, Без пробок: 30 мин</t>
+    <t>28 минПрибытие в 09:37 29 км, Без пробок: 28 мин</t>
   </si>
   <si>
     <t>56,315 38,136706</t>
   </si>
   <si>
-    <t>53 минПрибытие в 11:16 55 км, Без пробок: 53 мин</t>
+    <t>53 минПрибытие в 10:02 55 км, Без пробок: 53 мин</t>
   </si>
   <si>
     <t>54,474 38,7269856</t>
   </si>
   <si>
-    <t>1 ч 38 минПрибытие в 12:01 140 км, Без пробок: 1 ч 38 мин</t>
+    <t>1 ч 47 минПрибытие в 10:56 140 км, Без пробок: 1 ч 46 мин</t>
   </si>
   <si>
     <t>54,917 37,4229963</t>
   </si>
   <si>
-    <t>9 минПрибытие в 10:32 4,1 км, Без пробок: 9 мин</t>
+    <t>10 минПрибытие в 09:19 4,1 км, Без пробок: 10 мин</t>
   </si>
   <si>
     <t>55,904352 37,392733</t>
@@ -184,115 +435,115 @@
     <t>56,19 36,9721914</t>
   </si>
   <si>
-    <t>43 минПрибытие в 11:07 48 км, Без пробок: 43 мин</t>
+    <t>44 минПрибытие в 09:54 48 км, Без пробок: 43 мин</t>
   </si>
   <si>
     <t>54,894 38,078736</t>
   </si>
   <si>
-    <t>56 минПрибытие в 11:19 69 км, Без пробок: 56 мин</t>
+    <t>58 минПрибытие в 10:07 72 км, Без пробок: 58 мин</t>
   </si>
   <si>
     <t>55,955 38,0468269</t>
   </si>
   <si>
-    <t>48 минПрибытие в 11:11 21 км, Без пробок: 39 мин</t>
+    <t>47 минПрибытие в 09:56 21 км, Без пробок: 38 мин</t>
   </si>
   <si>
     <t>56,009 38,3786997</t>
   </si>
   <si>
-    <t>58 минПрибытие в 11:22 54 км, Без пробок: 58 мин</t>
+    <t>56 минПрибытие в 10:05 54 км, Без пробок: 56 мин</t>
   </si>
   <si>
     <t>55,92 37,990653</t>
   </si>
   <si>
-    <t>32 минПрибытие в 10:55 15 км, Без пробок: 28 мин</t>
+    <t>32 минПрибытие в 09:42 14 км, Без пробок: 23 мин</t>
   </si>
   <si>
     <t>55,796 37,934964</t>
   </si>
   <si>
-    <t>34 минПрибытие в 10:57 30 км, Без пробок: 33 мин</t>
+    <t>39 минПрибытие в 09:48 30 км, Без пробок: 34 мин</t>
   </si>
   <si>
     <t>55,855 38,440948</t>
   </si>
   <si>
-    <t>30 минПрибытие в 10:54 25 км, Без пробок: 27 мин</t>
+    <t>31 минПрибытие в 09:40 25 км, Без пробок: 27 мин</t>
   </si>
   <si>
     <t>55,683 37,1892329</t>
   </si>
   <si>
-    <t>38 минПрибытие в 11:02 27 км, Без пробок: 33 мин</t>
+    <t>37 минПрибытие в 09:46 27 км, Без пробок: 33 мин</t>
   </si>
   <si>
     <t>56,035 35,9589683</t>
   </si>
   <si>
-    <t>1 ч 22 минПрибытие в 11:45 88 км, Без пробок: 1 ч 22 мин</t>
+    <t>1 ч 18 минПрибытие в 10:28 88 км, Без пробок: 1 ч 18 мин</t>
   </si>
   <si>
     <t>55,314 38,6877259</t>
   </si>
   <si>
-    <t>3 ч 36 минПрибытие в 14:00 220 км, Без пробок: 3 ч 35 мин</t>
+    <t>3 ч 18 минПрибытие в 12:28 230 км, Без пробок: 3 ч 18 мин</t>
   </si>
   <si>
     <t>56,356 37,5402695999999</t>
   </si>
   <si>
-    <t>1 ч 23 минПрибытие в 11:47 68 км, Без пробок: 1 ч 20 мин</t>
+    <t>1 ч 21 минПрибытие в 10:31 68 км, Без пробок: 1 ч 20 мин</t>
   </si>
   <si>
     <t>55,932 37,519473</t>
   </si>
   <si>
-    <t>26 минПрибытие в 10:50 18 км, Без пробок: 26 мин</t>
+    <t>30 минПрибытие в 09:40 18 км, Без пробок: 26 мин</t>
   </si>
   <si>
     <t>56,739 37,1633263</t>
   </si>
   <si>
-    <t>2 ч 3 минПрибытие в 12:27 120 км, Без пробок: 2 ч 3 мин</t>
+    <t>1 ч 56 минПрибытие в 11:06 120 км, Без пробок: 1 ч 56 мин</t>
   </si>
   <si>
     <t>55,88 38,1059758</t>
   </si>
   <si>
-    <t>41 минПрибытие в 11:06 25 км, Без пробок: 40 мин</t>
+    <t>41 минПрибытие в 09:51 24 км, Без пробок: 38 мин</t>
   </si>
   <si>
     <t>55,968 37,9090225</t>
   </si>
   <si>
-    <t>21 минПрибытие в 10:46 16 км, Без пробок: 21 мин</t>
+    <t>21 минПрибытие в 09:31 16 км, Без пробок: 21 мин</t>
   </si>
   <si>
     <t>56,336 36,734732</t>
   </si>
   <si>
-    <t>1 ч 2 минПрибытие в 11:26 82 км, Без пробок: 1 ч 2 мин</t>
+    <t>1 ч 1 минПрибытие в 10:11 82 км, Без пробок: 1 ч 1 мин</t>
   </si>
   <si>
     <t>55,096 38,761568</t>
   </si>
   <si>
-    <t>49 минПрибытие в 11:13 46 км, Без пробок: 48 мин</t>
+    <t>52 минПрибытие в 10:02 46 км, Без пробок: 48 мин</t>
   </si>
   <si>
     <t>55,6 37,0332125</t>
   </si>
   <si>
-    <t>41 минПрибытие в 11:06 26 км, Без пробок: 33 мин</t>
+    <t>42 минПрибытие в 09:52 26 км, Без пробок: 32 мин</t>
   </si>
   <si>
     <t>56,011 37,4748027</t>
   </si>
   <si>
-    <t>30 минПрибытие в 10:55 20 км, Без пробок: 23 мин</t>
+    <t>31 минПрибытие в 09:41 20 км, Без пробок: 23 мин</t>
   </si>
   <si>
     <t>43,225839 1,288606</t>
@@ -301,35 +552,713 @@
     <t>56,224 35,6394321</t>
   </si>
   <si>
-    <t>1 дн. 16 ч 47 минПрибытие 15 нояб, в 03:11 (МСК +0) 3 600 км, Без пробок: 1 дн. 16 ч 47 мин</t>
+    <t>1 дн. 17 ч 10 минПрибытие 18 нояб, в 02:20 (МСК +0) 3 600 км, Без пробок: 1 дн. 17 ч 10 мин</t>
   </si>
   <si>
     <t>55,673 37,2818568</t>
   </si>
   <si>
-    <t>51 минПрибытие в 11:15 38 км, Без пробок: 45 мин</t>
+    <t>49 минПрибытие в 09:59 37 км, Без пробок: 43 мин</t>
   </si>
   <si>
     <t>55,811 38,9976025</t>
   </si>
   <si>
-    <t>26 минПрибытие в 10:50 24 км, Без пробок: 26 мин</t>
+    <t>28 минПрибытие в 09:39 24 км, Без пробок: 28 мин</t>
   </si>
   <si>
     <t>55,431 37,5457647</t>
   </si>
   <si>
-    <t>32 минПрибытие в 10:57 20 км, Без пробок: 29 мин</t>
-  </si>
-  <si>
-    <t>Широта Долгота (можно заменить на адрес)</t>
+    <t>34 минПрибытие в 09:45 23 км, Без пробок: 31 мин</t>
+  </si>
+  <si>
+    <t>38,718179 54,469452</t>
+  </si>
+  <si>
+    <t>38,724988 54,473926</t>
+  </si>
+  <si>
+    <t>Московская обл., Серебряно-Прудский р-н, Серебряные Пруды пос., ул. Школьная,д.4</t>
+  </si>
+  <si>
+    <t>Московская область рабочий поселок Серебряные Пруды</t>
+  </si>
+  <si>
+    <t>37,337002 55,147973</t>
+  </si>
+  <si>
+    <t>2 ч 10 минПрибытие в 17:47 160 км, Без пробок: 2 ч 10 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Беляево</t>
+  </si>
+  <si>
+    <t>38,210236 55,187075</t>
+  </si>
+  <si>
+    <t>1 ч 39 минПрибытие в 17:17 120 км, Без пробок: 1 ч 39 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Ламоново</t>
+  </si>
+  <si>
+    <t>37,421506 55,004158</t>
+  </si>
+  <si>
+    <t>1 ч 41 минПрибытие в 17:18 130 км, Без пробок: 1 ч 41 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Васильевское</t>
+  </si>
+  <si>
+    <t>37,212495 55,751675</t>
+  </si>
+  <si>
+    <t>3 чПрибытие в 18:37 220 км, Без пробок: 2 ч 49 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Александровка</t>
+  </si>
+  <si>
+    <t>35,805967 55,546348</t>
+  </si>
+  <si>
+    <t>3 ч 51 минПрибытие в 19:28 280 км, Без пробок: 3 ч 51 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Беззубово</t>
+  </si>
+  <si>
+    <t>38,789559 54,561897</t>
+  </si>
+  <si>
+    <t>15 минПрибытие в 15:52 13 км, Без пробок: 13 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Барыково</t>
+  </si>
+  <si>
+    <t>38,620047 54,614422</t>
+  </si>
+  <si>
+    <t>19 минПрибытие в 15:56 20 км, Без пробок: 17 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Тютьково</t>
+  </si>
+  <si>
+    <t>38,423999 54,515011</t>
+  </si>
+  <si>
+    <t>23 минПрибытие в 16:01 24 км, Без пробок: 23 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Петрово</t>
+  </si>
+  <si>
+    <t>38,45606 54,534621</t>
+  </si>
+  <si>
+    <t>24 минПрибытие в 16:01 24 км, Без пробок: 24 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Николаевка</t>
+  </si>
+  <si>
+    <t>38,720021 54,358785</t>
+  </si>
+  <si>
+    <t>16 минПрибытие в 15:54 15 км, Без пробок: 16 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Яблонево</t>
+  </si>
+  <si>
+    <t>38,737664 54,367305</t>
+  </si>
+  <si>
+    <t>15 минПрибытие в 15:53 14 км, Без пробок: 15 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Якимовка</t>
+  </si>
+  <si>
+    <t>38,631761 54,556477</t>
+  </si>
+  <si>
+    <t>Московская область деревня Яковлевское</t>
+  </si>
+  <si>
+    <t>38,42443 54,476583</t>
+  </si>
+  <si>
+    <t>28 минПрибытие в 16:06 29 км, Без пробок: 27 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Титеево</t>
+  </si>
+  <si>
+    <t>38,542684 54,482097</t>
+  </si>
+  <si>
+    <t>18 минПрибытие в 15:56 15 км, Без пробок: 18 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Толстые</t>
+  </si>
+  <si>
+    <t>38,825797 54,584938</t>
+  </si>
+  <si>
+    <t>26 минПрибытие в 16:04 20 км, Без пробок: 26 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Филино</t>
+  </si>
+  <si>
+    <t>38,667981 54,478953</t>
+  </si>
+  <si>
+    <t>6 минПрибытие в 15:45 4,2 км, Без пробок: 6 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Дудино</t>
+  </si>
+  <si>
+    <t>38,537187 54,541642</t>
+  </si>
+  <si>
+    <t>21 минПрибытие в 15:59 21 км, Без пробок: 21 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Глубокое</t>
+  </si>
+  <si>
+    <t>38,741401 54,599477</t>
+  </si>
+  <si>
+    <t>18 минПрибытие в 15:57 17 км, Без пробок: 18 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Колеймино</t>
+  </si>
+  <si>
+    <t>38,727486 54,372067</t>
+  </si>
+  <si>
+    <t>Московская область село Клинское</t>
+  </si>
+  <si>
+    <t>38,670003 54,27027</t>
+  </si>
+  <si>
+    <t>22 минПрибытие в 16:00 24 км, Без пробок: 22 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Кормовое</t>
+  </si>
+  <si>
+    <t>35,519288 55,931547</t>
+  </si>
+  <si>
+    <t>4 ч 8 минПрибытие в 19:46 330 км, Без пробок: 4 ч 8 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Красное</t>
+  </si>
+  <si>
+    <t>38,595532 54,43891</t>
+  </si>
+  <si>
+    <t>18 минПрибытие в 15:57 16 км, Без пробок: 18 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Куребино</t>
+  </si>
+  <si>
+    <t>38,64529 54,493739</t>
+  </si>
+  <si>
+    <t>23 минПрибытие в 16:02 21 км, Без пробок: 23 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Мягкое</t>
+  </si>
+  <si>
+    <t>38,457246 54,545559</t>
+  </si>
+  <si>
+    <t>22 минПрибытие в 16:01 24 км, Без пробок: 22 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Столбовка</t>
+  </si>
+  <si>
+    <t>38,626156 54,471807</t>
+  </si>
+  <si>
+    <t>10 минПрибытие в 15:49 7,7 км, Без пробок: 9 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Благодать</t>
+  </si>
+  <si>
+    <t>38,499134 54,452271</t>
+  </si>
+  <si>
+    <t>18 минПрибытие в 15:57 17 км, Без пробок: 17 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Большое Рогатово</t>
+  </si>
+  <si>
+    <t>38,434446 54,528096</t>
+  </si>
+  <si>
+    <t>24 минПрибытие в 16:03 24 км, Без пробок: 24 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Большое Орехово</t>
+  </si>
+  <si>
+    <t>38,530872 54,471781</t>
+  </si>
+  <si>
+    <t>17 минПрибытие в 15:56 15 км, Без пробок: 16 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Бокша</t>
+  </si>
+  <si>
+    <t>38,466768 54,492024</t>
+  </si>
+  <si>
+    <t>25 минПрибытие в 16:05 26 км, Без пробок: 25 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Боршово</t>
+  </si>
+  <si>
+    <t>38,818225 54,386462</t>
+  </si>
+  <si>
+    <t>18 минПрибытие в 15:58 14 км, Без пробок: 18 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Верхняя Пурловка</t>
+  </si>
+  <si>
+    <t>38,680657 54,591981</t>
+  </si>
+  <si>
+    <t>18 минПрибытие в 15:58 16 км, Без пробок: 18 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Должиково</t>
+  </si>
+  <si>
+    <t>38,755378 54,42214</t>
+  </si>
+  <si>
+    <t>13 минПрибытие в 15:53 6,6 км, Без пробок: 13 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Елисеевка</t>
+  </si>
+  <si>
+    <t>37,098184 56,103914</t>
+  </si>
+  <si>
+    <t>3 ч 44 минПрибытие в 19:23 250 км, Без пробок: 3 ч 14 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Есипово</t>
+  </si>
+  <si>
+    <t>38,767137 54,405254</t>
+  </si>
+  <si>
+    <t>19 минПрибытие в 15:59 9,2 км, Без пробок: 19 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Кораблевка</t>
+  </si>
+  <si>
+    <t>36,088397 55,428894</t>
+  </si>
+  <si>
+    <t>3 ч 32 минПрибытие в 19:12 250 км, Без пробок: 3 ч 32 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Коровино</t>
+  </si>
+  <si>
+    <t>38,54043 54,635527</t>
+  </si>
+  <si>
+    <t>30 минПрибытие в 16:10 26 км, Без пробок: 30 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Свиное</t>
+  </si>
+  <si>
+    <t>38,480916 54,463456</t>
+  </si>
+  <si>
+    <t>24 минПрибытие в 16:04 19 км, Без пробок: 24 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Скородня</t>
+  </si>
+  <si>
+    <t>36,379487 55,76879</t>
+  </si>
+  <si>
+    <t>3 ч 43 минПрибытие в 19:23 280 км, Без пробок: 3 ч 24 мин</t>
+  </si>
+  <si>
+    <t>Московская область село Аннино</t>
+  </si>
+  <si>
+    <t>38,498918 54,479979</t>
+  </si>
+  <si>
+    <t>26 минПрибытие в 16:06 22 км, Без пробок: 26 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Старомойгоры</t>
+  </si>
+  <si>
+    <t>39,045714 55,535147</t>
+  </si>
+  <si>
+    <t>2 ч 19 минПрибытие в 17:59 170 км, Без пробок: 2 ч 19 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Степановка</t>
+  </si>
+  <si>
+    <t>37,963963 55,896524</t>
+  </si>
+  <si>
+    <t>3 ч 14 минПрибытие в 18:54 200 км, Без пробок: 2 ч 42 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Серково</t>
+  </si>
+  <si>
+    <t>37,095966 55,671438</t>
+  </si>
+  <si>
+    <t>2 ч 56 минПрибытие в 18:36 210 км, Без пробок: 2 ч 49 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Семенково</t>
+  </si>
+  <si>
+    <t>38,778627 54,496186</t>
+  </si>
+  <si>
+    <t>11 минПрибытие в 15:51 6 км, Без пробок: 11 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Растрехаевка</t>
+  </si>
+  <si>
+    <t>38,647347 54,289262</t>
+  </si>
+  <si>
+    <t>22 минПрибытие в 16:02 22 км, Без пробок: 22 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Озерки</t>
+  </si>
+  <si>
+    <t>38,867228 54,444042</t>
+  </si>
+  <si>
+    <t>19 минПрибытие в 15:59 14 км, Без пробок: 19 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Савинка</t>
+  </si>
+  <si>
+    <t>38,557776 54,624316</t>
+  </si>
+  <si>
+    <t>25 минПрибытие в 16:05 24 км, Без пробок: 23 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Песочное</t>
+  </si>
+  <si>
+    <t>38,417513 54,488405</t>
+  </si>
+  <si>
+    <t>33 минПрибытие в 16:14 31 км, Без пробок: 33 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Невежино</t>
+  </si>
+  <si>
+    <t>38,634034 54,6335</t>
+  </si>
+  <si>
+    <t>22 минПрибытие в 16:03 23 км, Без пробок: 21 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Накаплово</t>
+  </si>
+  <si>
+    <t>54,616648 38,537762</t>
+  </si>
+  <si>
+    <t>26 минПрибытие в 16:07 25 км, Без пробок: 26 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Мозалово</t>
+  </si>
+  <si>
+    <t>38,837682 54,406957</t>
+  </si>
+  <si>
+    <t>13 минПрибытие в 15:54 12 км, Без пробок: 13 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Митякино</t>
+  </si>
+  <si>
+    <t>38,813913 54,573897</t>
+  </si>
+  <si>
+    <t>19 минПрибытие в 16:00 15 км, Без пробок: 19 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Лошатово</t>
+  </si>
+  <si>
+    <t>38,584267 54,399462</t>
+  </si>
+  <si>
+    <t>16 минПрибытие в 15:58 16 км, Без пробок: 16 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Красновские Выселки</t>
+  </si>
+  <si>
+    <t>38,427053 54,524569</t>
+  </si>
+  <si>
+    <t>27 минПрибытие в 16:08 25 км, Без пробок: 27 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Красный Пахарь</t>
+  </si>
+  <si>
+    <t>38,678411 54,296856</t>
+  </si>
+  <si>
+    <t>20 минПрибытие в 16:02 21 км, Без пробок: 20 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Куньи Выселки</t>
+  </si>
+  <si>
+    <t>38,83947 54,530024</t>
+  </si>
+  <si>
+    <t>19 минПрибытие в 16:00 14 км, Без пробок: 19 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Ливадия</t>
+  </si>
+  <si>
+    <t>38,496143 54,458547</t>
+  </si>
+  <si>
+    <t>20 минПрибытие в 16:02 18 км, Без пробок: 19 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Новомойгоры</t>
+  </si>
+  <si>
+    <t>38,9082 54,821494</t>
+  </si>
+  <si>
+    <t>41 минПрибытие в 16:23 49 км, Без пробок: 41 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Новоселки</t>
+  </si>
+  <si>
+    <t>38,397292 54,523372</t>
+  </si>
+  <si>
+    <t>26 минПрибытие в 16:08 26 км, Без пробок: 26 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Малое Орехово</t>
+  </si>
+  <si>
+    <t>38,76058 54,564637</t>
+  </si>
+  <si>
+    <t>15 минПрибытие в 15:56 13 км, Без пробок: 14 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Лошатовка</t>
+  </si>
+  <si>
+    <t>38,516885 54,418306</t>
+  </si>
+  <si>
+    <t>22 минПрибытие в 16:04 20 км, Без пробок: 20 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Лишняги</t>
+  </si>
+  <si>
+    <t>38,416094 54,514875</t>
+  </si>
+  <si>
+    <t>24 минПрибытие в 16:06 24 км, Без пробок: 24 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Кузьминка</t>
+  </si>
+  <si>
+    <t>38,674916 54,633943</t>
+  </si>
+  <si>
+    <t>24 минПрибытие в 16:06 21 км, Без пробок: 24 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Крытово</t>
+  </si>
+  <si>
+    <t>36,152115 56,234465</t>
+  </si>
+  <si>
+    <t>4 ч 15 минПрибытие в 19:57 310 км, Без пробок: 3 ч 58 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Курбатово</t>
+  </si>
+  <si>
+    <t>39,059072 54,923973</t>
+  </si>
+  <si>
+    <t>1 ч 5 минПрибытие в 16:47 69 км, Без пробок: 1 ч 3 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Ларино</t>
+  </si>
+  <si>
+    <t>37,186363 56,056639</t>
+  </si>
+  <si>
+    <t>3 ч 37 минПрибытие в 19:20 240 км, Без пробок: 3 ч 12 мин</t>
+  </si>
+  <si>
+    <t>Московская область деревня Никольское</t>
+  </si>
+  <si>
+    <t>38,690017 54,584015</t>
+  </si>
+  <si>
+    <t>15 минПрибытие в 15:59
+15 км, без пробок: 15 мин
+Посмотреть подробнее
+Исправить</t>
+  </si>
+  <si>
+    <t>Московская область деревня Косяево</t>
+  </si>
+  <si>
+    <t>700 м</t>
+  </si>
+  <si>
+    <t>4,9 км</t>
+  </si>
+  <si>
+    <t>11 км</t>
+  </si>
+  <si>
+    <t>28 км</t>
+  </si>
+  <si>
+    <t>25 км</t>
+  </si>
+  <si>
+    <t>22 км</t>
+  </si>
+  <si>
+    <t>17 км</t>
+  </si>
+  <si>
+    <t>12 км</t>
+  </si>
+  <si>
+    <t>21 км</t>
+  </si>
+  <si>
+    <t>18 км</t>
+  </si>
+  <si>
+    <t>6,7 км</t>
+  </si>
+  <si>
+    <t>16 км</t>
+  </si>
+  <si>
+    <t>10 км</t>
+  </si>
+  <si>
+    <t>9,6 км</t>
+  </si>
+  <si>
+    <t>29 км</t>
+  </si>
+  <si>
+    <t>31 км</t>
+  </si>
+  <si>
+    <t>30 км</t>
+  </si>
+  <si>
+    <t>3,1 км</t>
+  </si>
+  <si>
+    <t>37 км</t>
+  </si>
+  <si>
+    <t>7,4 км</t>
+  </si>
+  <si>
+    <t>23 км</t>
+  </si>
+  <si>
+    <t>36 км</t>
+  </si>
+  <si>
+    <t>39 км</t>
+  </si>
+  <si>
+    <t>27 км</t>
+  </si>
+  <si>
+    <t>14 км</t>
+  </si>
+  <si>
+    <t>9,4 км</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +1267,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +1302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -376,13 +1332,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -392,6 +1414,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -686,18 +1711,903 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="F21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="F23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="F25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="F27" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="F28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>388</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>404</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>405</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>398</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>392</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>398</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>9.1</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="8"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="6:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="3:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="8"/>
+      <c r="F122" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,505 +2629,1508 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="F20" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="F21" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="F22" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="F23" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="F25" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="F26" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="F27" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="F28" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="F29" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" t="s">
+        <v>321</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" t="s">
+        <v>324</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>332</v>
+      </c>
+      <c r="C52" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" t="s">
+        <v>336</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" t="s">
+        <v>354</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" t="s">
+        <v>357</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" t="s">
+        <v>360</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" t="s">
+        <v>366</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>371</v>
+      </c>
+      <c r="C65" t="s">
+        <v>372</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" t="s">
+        <v>375</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" t="s">
+        <v>378</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
